--- a/draft_schema.xlsx
+++ b/draft_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devo/Desktop/project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4347B20C-4927-9A44-A68C-CCDCF8739092}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DEAAAB-D94A-FC40-A14A-610F8066DE6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="27880" windowHeight="15660" xr2:uid="{E2D04FBA-4256-CA49-BBD9-CC0813626FBE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Food and bevarge </t>
   </si>
@@ -63,9 +63,6 @@
     <t xml:space="preserve">Seattle </t>
   </si>
   <si>
-    <t xml:space="preserve">Portland </t>
-  </si>
-  <si>
     <t xml:space="preserve">New York </t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t xml:space="preserve">Boston </t>
   </si>
   <si>
-    <t>Pits</t>
-  </si>
-  <si>
     <t xml:space="preserve">East Coast </t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>CUURA423</t>
   </si>
   <si>
-    <t>CUURA425</t>
-  </si>
-  <si>
     <t>CUURA101</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
   </si>
   <si>
     <t>CUURA103</t>
-  </si>
-  <si>
-    <t>CUURA104</t>
   </si>
   <si>
     <t>KEY</t>
@@ -507,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE033AD4-3F7A-3843-AC77-779B53FDA6A7}">
   <dimension ref="C8:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,41 +510,41 @@
   <sheetData>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.2">
@@ -567,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.2">
@@ -576,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.2">
@@ -585,7 +573,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.2">
@@ -594,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.2">
@@ -612,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -621,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -630,58 +618,46 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/draft_schema.xlsx
+++ b/draft_schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devo/Desktop/project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwoh1\Desktop\Data Analytics Bootcamp\ETL Project\ETL_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4347B20C-4927-9A44-A68C-CCDCF8739092}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262FDAFB-E836-4A1F-85DC-39A646E3955A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="27880" windowHeight="15660" xr2:uid="{E2D04FBA-4256-CA49-BBD9-CC0813626FBE}"/>
+    <workbookView xWindow="3593" yWindow="2835" windowWidth="16875" windowHeight="10523" xr2:uid="{E2D04FBA-4256-CA49-BBD9-CC0813626FBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Food and bevarge </t>
   </si>
   <si>
-    <t xml:space="preserve">Dallas </t>
-  </si>
-  <si>
     <t>Houston</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t xml:space="preserve">Seattle </t>
   </si>
   <si>
-    <t xml:space="preserve">Portland </t>
-  </si>
-  <si>
     <t xml:space="preserve">New York </t>
   </si>
   <si>
@@ -75,9 +69,6 @@
     <t xml:space="preserve">Boston </t>
   </si>
   <si>
-    <t>Pits</t>
-  </si>
-  <si>
     <t xml:space="preserve">East Coast </t>
   </si>
   <si>
@@ -87,9 +78,6 @@
     <t xml:space="preserve">Medial Care </t>
   </si>
   <si>
-    <t>CUURA316</t>
-  </si>
-  <si>
     <t>CUURA318</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>CUURA423</t>
   </si>
   <si>
-    <t>CUURA425</t>
-  </si>
-  <si>
     <t>CUURA101</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
   </si>
   <si>
     <t>CUURA103</t>
-  </si>
-  <si>
-    <t>CUURA104</t>
   </si>
   <si>
     <t>KEY</t>
@@ -183,13 +165,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,181 +489,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE033AD4-3F7A-3843-AC77-779B53FDA6A7}">
   <dimension ref="C8:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.3125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.5">
       <c r="F8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.5">
       <c r="E9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.5">
       <c r="E10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C12" s="2"/>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C14" s="2"/>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C19" s="2"/>
       <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
       <c r="E22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C24" s="2"/>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C25" s="2"/>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/draft_schema.xlsx
+++ b/draft_schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwoh1\Desktop\Data Analytics Bootcamp\ETL Project\ETL_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devo/Desktop/project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262FDAFB-E836-4A1F-85DC-39A646E3955A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D99D8-7A05-3947-A66F-57D683CC4C70}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3593" yWindow="2835" windowWidth="16875" windowHeight="10523" xr2:uid="{E2D04FBA-4256-CA49-BBD9-CC0813626FBE}"/>
+    <workbookView xWindow="1680" yWindow="460" windowWidth="25700" windowHeight="13660" xr2:uid="{E2D04FBA-4256-CA49-BBD9-CC0813626FBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,20 +489,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE033AD4-3F7A-3843-AC77-779B53FDA6A7}">
   <dimension ref="C8:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="11.8125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>28</v>
       </c>
@@ -513,7 +513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>31</v>
       </c>
@@ -527,7 +527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>24</v>
       </c>
@@ -541,12 +541,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" t="s">
         <v>1</v>
@@ -555,7 +555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
       <c r="D13" t="s">
         <v>2</v>
@@ -564,7 +564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" t="s">
         <v>3</v>
@@ -573,14 +573,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
@@ -591,7 +591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="2"/>
       <c r="D18" t="s">
         <v>7</v>
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
       <c r="D19" t="s">
         <v>8</v>
@@ -609,13 +609,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
@@ -626,7 +626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" t="s">
         <v>10</v>
@@ -635,7 +635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" t="s">
         <v>11</v>
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
     </row>
   </sheetData>
